--- a/4company_schedule/公司申请时间表.xlsx
+++ b/4company_schedule/公司申请时间表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
   <si>
     <t>公司名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,9 +52,6 @@
     <t>未投递</t>
   </si>
   <si>
-    <t>一面</t>
-  </si>
-  <si>
     <t>投递地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,10 +67,6 @@
   </si>
   <si>
     <t>杭州</t>
-  </si>
-  <si>
-    <t>字节互娱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>malei.0620@bytedance.com</t>
@@ -234,7 +227,127 @@
     <t>qingyu.fl@taobao.com</t>
   </si>
   <si>
+    <t>虎牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1104764841@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>简历命名：姓名-学校-联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉</t>
+  </si>
+  <si>
+    <t>蘑菇街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/discuss/215778?type=7&amp;order=3&amp;pos=3&amp;page=0&amp;tdsourcetag=s_pctim_aiomsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+  </si>
+  <si>
+    <t>https://join.qq.com/post.php?fid=75&amp;pid=1</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>滴滴</t>
+  </si>
+  <si>
+    <t>8.1-8.10</t>
+  </si>
+  <si>
+    <t>http://campus.didichuxing.com/oversea/positions/0</t>
+  </si>
+  <si>
+    <t>后端研发工程师</t>
+  </si>
+  <si>
+    <t>新浪</t>
+  </si>
+  <si>
+    <t>网申 &amp; 内推：即日起至8月30日</t>
+  </si>
+  <si>
+    <t>http://career.sina.com.cn</t>
+  </si>
+  <si>
+    <t>小米</t>
+  </si>
+  <si>
+    <t>内推链接</t>
+  </si>
+  <si>
+    <t>8.1-8.10 新锐计划招聘，这个和正常的秋招没有影响，没过的可以正常参加秋招。 内推人：张文斌 工号 ：d27707 邮箱： zevzhangwenbin@didichuxing.com
+内推地址：http://campus.didichuxing.com/campus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客网专属内推码：sinanc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二面凉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节互娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易有道</t>
+  </si>
+  <si>
+    <t>笔试挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.mogujie.com/#/candidate?_k=9qzhfv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.kuaishou.cn/recruit/campus/e/#/campus/share/job-info/209/FFfvqopULMnlqbkw84owYw%3D%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -297,7 +410,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -335,17 +448,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -355,23 +529,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -703,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -723,432 +928,578 @@
     <col min="10" max="10" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="21" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="21" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="43.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="21" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="21" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="21" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="55.5" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="111" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="I8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="87.75" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" ht="43.5" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="87.75" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="21" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="21" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="K12" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="42.75" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" ht="21" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" ht="124.5" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" ht="21" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="G15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="50.25" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="21" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="G16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" ht="21" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="1:12" ht="21" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" ht="55.5" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" ht="111" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" ht="21" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" ht="21" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="87.75" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="21" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" ht="21" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" ht="21" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" ht="21" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" ht="21" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="21" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="21" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="21" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="21" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" ht="21" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" ht="21" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9 D11:D20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D21 D12:D13 D2:D9">
       <formula1>"校招,提前批"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9 E11:E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E21 E12:E13 E2:E9">
       <formula1>"内推,网申"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9 F11:F20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F21 F12:F13 F2:F9 F10:F11">
       <formula1>"未投递,已投递,一面,二面,offer,凉"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9 G11:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:G21 G12:G13 G2:G9">
       <formula1>"北京,上海,杭州,深圳,武汉,广州"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9 I11:I20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18:I21 I12:I13 I2:I9">
       <formula1>"校招还可投,一次机会"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1160,10 +1511,18 @@
     <hyperlink ref="C5" r:id="rId5"/>
     <hyperlink ref="C3" r:id="rId6"/>
     <hyperlink ref="C2" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C12" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId10"/>
+    <hyperlink ref="C14" r:id="rId11"/>
+    <hyperlink ref="C15" r:id="rId12"/>
+    <hyperlink ref="C16" r:id="rId13" display="http://career.sina.com.cn/"/>
+    <hyperlink ref="C17" r:id="rId14" location="/jobs/?keyword=&amp;isCampusJob=1&amp;page=1&amp;_k=muzpnq" display="https://app.mokahr.com/recommendation-apply/xiaomi/3527?recommenderId=49563&amp;tdsourcetag=s_pcqq_aiomsg - /jobs/?keyword=&amp;isCampusJob=1&amp;page=1&amp;_k=muzpnq"/>
+    <hyperlink ref="C18" r:id="rId15" location="/candidate?_k=9qzhfv"/>
+    <hyperlink ref="C19" r:id="rId16" location="/campus/share/job-info/209/FFfvqopULMnlqbkw84owYw%3D%3D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
--- a/4company_schedule/公司申请时间表.xlsx
+++ b/4company_schedule/公司申请时间表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
   <si>
     <t>公司名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,30 @@
   </si>
   <si>
     <t>官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱奇艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paypal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1472,17 +1496,184 @@
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="7"/>
       <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1493,7 +1684,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E21 E12:E13 E2:E9">
       <formula1>"内推,网申"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F21 F12:F13 F2:F9 F10:F11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26">
       <formula1>"未投递,已投递,一面,二面,offer,凉"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:G21 G12:G13 G2:G9">
@@ -1506,20 +1697,20 @@
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1"/>
     <hyperlink ref="C8" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3" location="/app/index?boleId=cd05b18677cf3d1f&amp;type=1&amp;boleType=2&amp;signature=7d3d0c7563c04594a2832bd62bf3698e&amp;projectId=19"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="C3" r:id="rId6"/>
-    <hyperlink ref="C2" r:id="rId7"/>
-    <hyperlink ref="C11" r:id="rId8"/>
-    <hyperlink ref="C12" r:id="rId9"/>
-    <hyperlink ref="C13" r:id="rId10"/>
-    <hyperlink ref="C14" r:id="rId11"/>
-    <hyperlink ref="C15" r:id="rId12"/>
-    <hyperlink ref="C16" r:id="rId13" display="http://career.sina.com.cn/"/>
-    <hyperlink ref="C17" r:id="rId14" location="/jobs/?keyword=&amp;isCampusJob=1&amp;page=1&amp;_k=muzpnq" display="https://app.mokahr.com/recommendation-apply/xiaomi/3527?recommenderId=49563&amp;tdsourcetag=s_pcqq_aiomsg - /jobs/?keyword=&amp;isCampusJob=1&amp;page=1&amp;_k=muzpnq"/>
-    <hyperlink ref="C18" r:id="rId15" location="/candidate?_k=9qzhfv"/>
-    <hyperlink ref="C19" r:id="rId16" location="/campus/share/job-info/209/FFfvqopULMnlqbkw84owYw%3D%3D"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12" display="http://career.sina.com.cn/"/>
+    <hyperlink ref="C17" r:id="rId13" location="/jobs/?keyword=&amp;isCampusJob=1&amp;page=1&amp;_k=muzpnq" display="https://app.mokahr.com/recommendation-apply/xiaomi/3527?recommenderId=49563&amp;tdsourcetag=s_pcqq_aiomsg - /jobs/?keyword=&amp;isCampusJob=1&amp;page=1&amp;_k=muzpnq"/>
+    <hyperlink ref="C18" r:id="rId14" location="/candidate?_k=9qzhfv"/>
+    <hyperlink ref="C19" r:id="rId15" location="/campus/share/job-info/209/FFfvqopULMnlqbkw84owYw%3D%3D"/>
+    <hyperlink ref="C7" r:id="rId16" location="/app/index?boleId=cd05b18677cf3d1f&amp;type=1&amp;boleType=2&amp;signature=7d3d0c7563c04594a2832bd62bf3698e&amp;projectId=19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>

--- a/4company_schedule/公司申请时间表.xlsx
+++ b/4company_schedule/公司申请时间表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="104">
   <si>
     <t>公司名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,6 +371,49 @@
   </si>
   <si>
     <t>paypal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼多多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旷世科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一面</t>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇安信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一面现场面挂30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流利说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陌陌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -601,6 +644,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -932,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1521,12 +1574,14 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:12">
@@ -1538,7 +1593,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1598,12 +1653,16 @@
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1611,12 +1670,16 @@
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1624,12 +1687,16 @@
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1637,12 +1704,16 @@
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1650,12 +1721,16 @@
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1663,17 +1738,174 @@
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="7"/>
       <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="22"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="22"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="22"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="22"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="22"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="22"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="22"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1684,7 +1916,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E21 E12:E13 E2:E9">
       <formula1>"内推,网申"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35">
       <formula1>"未投递,已投递,一面,二面,offer,凉"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:G21 G12:G13 G2:G9">

--- a/4company_schedule/公司申请时间表.xlsx
+++ b/4company_schedule/公司申请时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="106">
   <si>
     <t>公司名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,6 +414,14 @@
   </si>
   <si>
     <t>陌陌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.envisioncn.com/dream_par_stu_pc/dist/#/main/postList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -653,6 +661,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -987,15 +998,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="39.125" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="56.875" customWidth="1"/>
     <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
@@ -1484,7 +1495,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="8"/>
@@ -1522,7 +1533,9 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1806,12 +1819,18 @@
       <c r="K35" s="22"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="23"/>
+      <c r="A36" s="23" t="s">
+        <v>104</v>
+      </c>
       <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+      <c r="C36" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
@@ -1916,7 +1935,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E21 E12:E13 E2:E9">
       <formula1>"内推,网申"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F36">
       <formula1>"未投递,已投递,一面,二面,offer,凉"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:G21 G12:G13 G2:G9">
@@ -1943,9 +1962,10 @@
     <hyperlink ref="C18" r:id="rId14" location="/candidate?_k=9qzhfv"/>
     <hyperlink ref="C19" r:id="rId15" location="/campus/share/job-info/209/FFfvqopULMnlqbkw84owYw%3D%3D"/>
     <hyperlink ref="C7" r:id="rId16" location="/app/index?boleId=cd05b18677cf3d1f&amp;type=1&amp;boleType=2&amp;signature=7d3d0c7563c04594a2832bd62bf3698e&amp;projectId=19"/>
+    <hyperlink ref="C36" r:id="rId17" location="/main/postList"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
-  <drawing r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>